--- a/thesis/resources/toc.xlsx
+++ b/thesis/resources/toc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\mgr\thesis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B9BD7-E55D-41F3-AEBB-ED51A1616865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF5DD84-C05D-45CF-B132-B3D75408FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9ABD2D86-3B99-44F9-BC5C-8F2CE1D9E2FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Summary</t>
   </si>
@@ -99,21 +99,12 @@
     <t>References</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -126,27 +117,15 @@
     <t>12</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -159,9 +138,6 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>59</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>CHAPTER I.</t>
   </si>
   <si>
@@ -196,6 +169,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB91C7-5332-497F-83B7-AA13F4521781}">
   <dimension ref="A8:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -597,16 +597,16 @@
   <sheetData>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>A8&amp;B8&amp;C8</f>
@@ -616,49 +616,48 @@
         <f>F8&amp;H8</f>
         <v>CHAPTER I. Introduction</v>
       </c>
-      <c r="K8" s="5" t="str">
-        <f>D8</f>
-        <v>2</v>
+      <c r="K8" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" ref="H9:H28" si="0">A9&amp;B9&amp;C9</f>
         <v xml:space="preserve"> Literature review</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" ref="J9:J28" si="1">F9&amp;H9</f>
+        <f t="shared" ref="J9:J27" si="1">F9&amp;H9</f>
         <v>CHAPTER II. Literature review</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" ref="K9:K28" si="2">D9</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -670,21 +669,21 @@
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -696,12 +695,12 @@
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -710,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -722,15 +721,15 @@
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -748,21 +747,21 @@
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -774,21 +773,21 @@
       </c>
       <c r="K14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -800,21 +799,21 @@
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -826,21 +825,21 @@
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -852,21 +851,21 @@
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -878,73 +877,73 @@
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Results</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>CHAPTER V. Results</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>36</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Results</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>CHAPTER V. Results</v>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5.1. Results of the pre-modeling phase</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5.1. Results of the pre-modeling phase</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>36</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5.1. Results of the pre-modeling phase</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5.1. Results of the pre-modeling phase</v>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -956,21 +955,21 @@
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -982,21 +981,21 @@
       </c>
       <c r="K22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1016,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1036,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1056,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1076,7 +1075,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1096,7 +1095,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1108,7 +1107,7 @@
       </c>
       <c r="K28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/resources/toc.xlsx
+++ b/thesis/resources/toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\mgr\thesis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF5DD84-C05D-45CF-B132-B3D75408FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86FC83-63AE-48F1-894A-83303E5CC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9ABD2D86-3B99-44F9-BC5C-8F2CE1D9E2FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ABD2D86-3B99-44F9-BC5C-8F2CE1D9E2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>Summary</t>
   </si>
@@ -196,13 +196,175 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>Customer churn in CRM and modelling - literature review</t>
+  </si>
+  <si>
+    <t>Customer retention</t>
+  </si>
+  <si>
+    <t>Modelling methods</t>
+  </si>
+  <si>
+    <t>Answering the hypotheses about feature’s influence using Explainable Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Results of the pre-modelling phase</t>
+  </si>
+  <si>
+    <t>Answering research questions about feature’s influence on customer loyalty</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Variables used in previous churn prediction studies</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPTER I. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPTER II. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPTER III. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPTER IV. </t>
+  </si>
+  <si>
+    <t>INTRODUCTION……………………………………………………………………...</t>
+  </si>
+  <si>
+    <t>CHAPTER I. Customer churn in CRM and modelling - literature review….………….</t>
+  </si>
+  <si>
+    <t>1.1. Customer retention……………………………………………………….……..</t>
+  </si>
+  <si>
+    <t>1.2. Variables used in previous churn prediction studies……………………………</t>
+  </si>
+  <si>
+    <t>1.3. Explainable Artificial Intelligence………………..…………….………………</t>
+  </si>
+  <si>
+    <t>CHAPTER II. Dataset description………………………..……………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1. Data sources…………………………………………..…………...……………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2. Quantitative analysis……………………………………...……………..………</t>
+  </si>
+  <si>
+    <t>CHAPTER III. Methods description……………………………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1. Features preprocessing……………………………..……………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2. Variables selection methods…………………………..…………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3. Modelling methods………………………………………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.4. Answering the hypotheses about feature’s influence using XAI methods………</t>
+  </si>
+  <si>
+    <t>CHAPTER IV. Results……………………………………………….…………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1. Results of the pre-modelling phase………………………………………...……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2. Performance analysis………………………………………………………….…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3. Answering research questions about feature’s influence on customer loyalty….</t>
+  </si>
+  <si>
+    <t>SUMMARY…………………………………………………………..………………...</t>
+  </si>
+  <si>
+    <t>APPENDIXES………………………………………………..………………………...</t>
+  </si>
+  <si>
+    <t>Appendix A - Spatial join of census data to the main dataset………………………….</t>
+  </si>
+  <si>
+    <t>Appendix B - Reviews topics…………………………………………………………..</t>
+  </si>
+  <si>
+    <t>Appendix C - Table of lift values for selected quantiles………...……………………..</t>
+  </si>
+  <si>
+    <t>REFERENCES…………………………………………………………………………</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +376,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
@@ -254,13 +430,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -575,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB91C7-5332-497F-83B7-AA13F4521781}">
-  <dimension ref="A8:K28"/>
+  <dimension ref="A8:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K28"/>
+    <sheetView tabSelected="1" topLeftCell="I71" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -591,7 +773,7 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="56.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="53.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -1110,7 +1292,716 @@
         <v>60</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>A37&amp;B37&amp;C37</f>
+        <v>Introduction</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f>F37&amp;H37</f>
+        <v>Introduction</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" ref="H38:H59" si="3">A38&amp;B38&amp;C38</f>
+        <v>Customer churn in CRM and modelling - literature review</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f t="shared" ref="J38:J59" si="4">F38&amp;H38</f>
+        <v>CHAPTER I. Customer churn in CRM and modelling - literature review</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1.1.Customer retention</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1.1.Customer retention</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1.2.Variables used in previous churn prediction studies</v>
+      </c>
+      <c r="J40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1.2.Variables used in previous churn prediction studies</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1.3.Explainable Artificial Intelligence</v>
+      </c>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1.3.Explainable Artificial Intelligence</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Dataset description</v>
+      </c>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CHAPTER II. Dataset description</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2.1.Data sources</v>
+      </c>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2.1.Data sources</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2.2.Quantitative analysis</v>
+      </c>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2.2.Quantitative analysis</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Methods description</v>
+      </c>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CHAPTER III. Methods description</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>3.1.Modelling methods</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3.1.Modelling methods</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>3.2.Features preprocessing</v>
+      </c>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3.2.Features preprocessing</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>3.3.Variables selection methods</v>
+      </c>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3.3.Variables selection methods</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>3.4.Answering the hypotheses about feature’s influence using Explainable Artificial Intelligence</v>
+      </c>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3.4.Answering the hypotheses about feature’s influence using Explainable Artificial Intelligence</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Results</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CHAPTER IV. Results</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4.1.Results of the pre-modelling phase</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4.1.Results of the pre-modelling phase</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4.2.Performance analysis</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4.2.Performance analysis</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4.3.Answering research questions about feature’s influence on customer loyalty</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4.3.Answering research questions about feature’s influence on customer loyalty</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Summary</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Appendixes</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Appendixes</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Appendix A - Spatial join of census data to the main dataset</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Appendix A - Spatial join of census data to the main dataset</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Appendix B - reviews topics</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Appendix B - reviews topics</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Appendix C - table of lift values for selected quantiles</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Appendix C - table of lift values for selected quantiles</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>References</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>References</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K75" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J76" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K79" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K81" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K82" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K83" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K84" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K88" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K89" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K90" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K91" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K92" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K93" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K94" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K95" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
